--- a/lpbfmaterialuniverse/LPBF_Material_Universe.xlsx
+++ b/lpbfmaterialuniverse/LPBF_Material_Universe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\LPBF Material Universite Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\GitHub\thinkadd-pages\lpbfmaterialuniverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9D3686-6FBF-4D86-BE67-37DC66014F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0C6861-BF7A-45F1-BDFB-0A10887E371F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,7 +418,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -500,13 +540,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{982D06BD-31D5-4C16-A83B-CE4ED4CDA2B6}" name="Tablo2" displayName="Tablo2" ref="A1:A19" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{982D06BD-31D5-4C16-A83B-CE4ED4CDA2B6}" name="Tablo2" displayName="Tablo2" ref="A1:A19" totalsRowShown="0" dataDxfId="14">
   <autoFilter ref="A1:A19" xr:uid="{982D06BD-31D5-4C16-A83B-CE4ED4CDA2B6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A19">
-    <sortCondition sortBy="cellColor" ref="A1:A19" dxfId="8"/>
+    <sortCondition sortBy="cellColor" ref="A1:A19" dxfId="13"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{670F49C5-93DF-4F2F-86D2-90148EF7D5B6}" name="Aluminum Alloys" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{670F49C5-93DF-4F2F-86D2-90148EF7D5B6}" name="Aluminum Alloys" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="Tablo Stili 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -523,13 +563,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A4BCFFE-4CE9-48AB-A996-E60077322C7C}" name="Tablo3" displayName="Tablo3" ref="B1:B19" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2A4BCFFE-4CE9-48AB-A996-E60077322C7C}" name="Tablo3" displayName="Tablo3" ref="B1:B19" totalsRowShown="0" dataDxfId="11">
   <autoFilter ref="B1:B19" xr:uid="{2A4BCFFE-4CE9-48AB-A996-E60077322C7C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B19">
-    <sortCondition sortBy="cellColor" ref="B1:B19" dxfId="5"/>
+    <sortCondition sortBy="cellColor" ref="B1:B19" dxfId="4"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5DB0D49E-3D47-40A5-A274-E189839A3E9B}" name="Titanium Alloys" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{5DB0D49E-3D47-40A5-A274-E189839A3E9B}" name="Titanium Alloys" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="Tablo Stili 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -595,7 +635,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6261C836-9286-4B04-A80B-22D791EA7206}" name="Tablo9" displayName="Tablo9" ref="H1:H1048576" totalsRowShown="0">
   <autoFilter ref="H1:H1048576" xr:uid="{6261C836-9286-4B04-A80B-22D791EA7206}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:H1048576">
-    <sortCondition sortBy="cellColor" ref="H1:H1048576" dxfId="0"/>
+    <sortCondition sortBy="cellColor" ref="H1:H1048576" dxfId="1"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{4EAE6CA2-42BE-4021-812B-E856FD2A30CC}" name="Tool Steel &amp; Others"/>
@@ -608,7 +648,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A5D621D5-B6EE-404E-90B2-7BF315C3EAE5}" name="Tablo10" displayName="Tablo10" ref="I1:I1048576" totalsRowShown="0">
   <autoFilter ref="I1:I1048576" xr:uid="{A5D621D5-B6EE-404E-90B2-7BF315C3EAE5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:I1048576">
-    <sortCondition sortBy="cellColor" ref="I1:I1048576" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="I1:I1048576" dxfId="0"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{F36BA41F-9B57-4D11-AAF3-04EA150C0276}" name="Stainless Steel"/>
@@ -907,7 +947,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
